--- a/Excel图表作品.xlsx
+++ b/Excel图表作品.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022CDA\Learn-CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81681CB-C9E6-4250-B87E-8A19DDC6A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC86EA6-2503-4300-9844-4E07BFEFCB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{77BCAC70-9461-4CC7-9622-F678B3332B40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{77BCAC70-9461-4CC7-9622-F678B3332B40}"/>
   </bookViews>
   <sheets>
     <sheet name="条形图作品" sheetId="1" r:id="rId1"/>
-    <sheet name="配色" sheetId="2" r:id="rId2"/>
+    <sheet name="漏斗图" sheetId="3" r:id="rId2"/>
+    <sheet name="组合图" sheetId="4" r:id="rId3"/>
+    <sheet name="配色" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -103,12 +105,138 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="1">
+      <t>cao zuo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送列表</t>
+    <rPh sb="0" eb="1">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功推送</t>
+    <rPh sb="0" eb="1">
+      <t>c gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui song</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效推送</t>
+    <rPh sb="0" eb="1">
+      <t>you xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui song</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户屏蔽</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>p bi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接收成功</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>c gong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览到通知</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu lan dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户成功打开</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>c gong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da kai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人数</t>
+    <rPh sb="0" eb="1">
+      <t>can yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓</t>
+    <rPh sb="0" eb="1">
+      <t>an zhuo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +307,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +388,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -344,13 +485,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +564,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,7 +1089,1655 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>漏斗图!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>辅助列1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>漏斗图!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>推送列表</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>成功推送</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>有效推送</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>用户屏蔽</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>用户接收成功</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>用户浏览到通知</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>用户成功打开</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>漏斗图!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF96-434E-A583-D2D94D79E538}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>漏斗图!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>参与人数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>漏斗图!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>推送列表</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>成功推送</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>有效推送</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>用户屏蔽</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>用户接收成功</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>用户浏览到通知</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>用户成功打开</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>漏斗图!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF96-434E-A583-D2D94D79E538}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>漏斗图!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>辅助列2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>漏斗图!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>推送列表</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>成功推送</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>有效推送</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>用户屏蔽</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>用户接收成功</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>用户浏览到通知</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>用户成功打开</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>漏斗图!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF96-434E-A583-D2D94D79E538}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="943212256"/>
+        <c:axId val="943213088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="943212256"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943213088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="943213088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943212256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2185992977790705"/>
+          <c:y val="8.4251239428404789E-2"/>
+          <c:w val="0.74752207425259176"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>漏斗图!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>参与人数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>漏斗图!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>推送列表</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>成功推送</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>有效推送</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>用户屏蔽</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>用户接收成功</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>用户浏览到通知</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>用户成功打开</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>漏斗图!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF95-4F7E-ADDA-BAC642C1430B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>漏斗图!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>辅助列3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>漏斗图!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>推送列表</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>成功推送</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>有效推送</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>用户屏蔽</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>用户接收成功</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>用户浏览到通知</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>用户成功打开</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>漏斗图!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF95-4F7E-ADDA-BAC642C1430B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1110973696"/>
+        <c:axId val="1110972032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1110973696"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110972032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110972032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110973696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>组合图!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安卓</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>组合图!$A$1:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>日期</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/1/1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/1/2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/1/3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017/1/4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017/1/5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017/1/6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/1/7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017/1/8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017/1/9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017/1/10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017/1/11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017/1/12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017/1/13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017/1/14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017/1/15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017/1/16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/1/17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017/1/18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017/1/19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017/1/20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017/1/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017/1/22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017/1/23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017/1/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>组合图!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE44-42AA-862C-5386BA828DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="807558048"/>
+        <c:axId val="807558464"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>波动</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>组合图!$A$1:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>日期</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/1/1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/1/2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/1/3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017/1/4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017/1/5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017/1/6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/1/7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017/1/8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017/1/9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017/1/10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017/1/11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017/1/12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017/1/13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017/1/14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017/1/15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017/1/16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/1/17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017/1/18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017/1/19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017/1/20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017/1/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017/1/22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017/1/23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017/1/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>组合图!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4267912772585674E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10322580645161294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.6491228070175405E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1779935275080957E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14153846153846161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25876010781671166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4239828693790191E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4084507042253502E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.29795918367346941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.29069767441860461</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10245901639344257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8493150684931559E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.2820512820512775E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19480519480519476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10144927536231885</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.289473684210531E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9108280254777066E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8750000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15030674846625769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.17333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8709677419354938E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5900621118012417E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.3529411764705843E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE44-42AA-862C-5386BA828DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1117200720"/>
+        <c:axId val="1117191568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="807558048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807558464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="807558464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807558048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1117191568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117200720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1117200720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1117191568"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1458,6 +3280,1532 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1479,6 +4827,124 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B244381-A966-9C34-207A-339208E70D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81249B8D-530E-21E4-E178-AF80DB57E66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9989450D-E5BB-CCD3-C60B-EE11CAD18387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6613FD7D-65CB-B137-1F69-BEB4EE2B7E00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +5264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820214F0-EBEC-4998-A3B3-352CC9DAD0B8}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2054,6 +5520,624 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC5F626-5A20-478A-A455-7D788EB586B7}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.08203125" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="34">
+        <f>(MAX($D$3:$D$9)-D3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>100</v>
+      </c>
+      <c r="E3" s="34">
+        <f>(MAX($D$3:$D$9)-D3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="34">
+        <f>(MAX($D$3:$D$9)-D4)/2</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="33">
+        <v>90</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" ref="E4:E9" si="0">(MAX($D$3:$D$9)-D4)/2</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="34">
+        <f>D3-D4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="34">
+        <f>(MAX($D$3:$D$9)-D5)/2</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="33">
+        <v>84</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" ref="F5:F9" si="1">D4-D5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="34">
+        <f>(MAX($D$3:$D$9)-D6)/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>65</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="34">
+        <f>(MAX($D$3:$D$9)-D7)/2</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="33">
+        <v>60</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="34">
+        <f>(MAX($D$3:$D$9)-D8)/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="D8" s="33">
+        <v>15</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="34">
+        <f>(MAX($D$3:$D$9)-D9)/2</f>
+        <v>48</v>
+      </c>
+      <c r="D9" s="33">
+        <v>4</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E20" s="35"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="F22" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D00E5B-8FE9-4D95-BED8-06FD7FEAF9B0}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A2" s="39">
+        <v>42736</v>
+      </c>
+      <c r="B2" s="40">
+        <v>321</v>
+      </c>
+      <c r="C2">
+        <v>321</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A3" s="39">
+        <v>42737</v>
+      </c>
+      <c r="B3" s="40">
+        <v>310</v>
+      </c>
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>631</v>
+      </c>
+      <c r="D3" s="42">
+        <f>B3/B2-1</f>
+        <v>-3.4267912772585674E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A4" s="39">
+        <v>42738</v>
+      </c>
+      <c r="B4" s="40">
+        <v>342</v>
+      </c>
+      <c r="C4">
+        <f>C3+B4</f>
+        <v>973</v>
+      </c>
+      <c r="D4" s="42">
+        <f t="shared" ref="D4:D25" si="0">B4/B3-1</f>
+        <v>0.10322580645161294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A5" s="39">
+        <v>42739</v>
+      </c>
+      <c r="B5" s="40">
+        <v>309</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C25" si="1">C4+B5</f>
+        <v>1282</v>
+      </c>
+      <c r="D5" s="42">
+        <f t="shared" si="0"/>
+        <v>-9.6491228070175405E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A6" s="39">
+        <v>42740</v>
+      </c>
+      <c r="B6" s="40">
+        <v>325</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1607</v>
+      </c>
+      <c r="D6" s="42">
+        <f t="shared" si="0"/>
+        <v>5.1779935275080957E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A7" s="39">
+        <v>42741</v>
+      </c>
+      <c r="B7" s="40">
+        <v>371</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1978</v>
+      </c>
+      <c r="D7" s="42">
+        <f t="shared" si="0"/>
+        <v>0.14153846153846161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A8" s="39">
+        <v>42742</v>
+      </c>
+      <c r="B8" s="40">
+        <v>467</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2445</v>
+      </c>
+      <c r="D8" s="42">
+        <f t="shared" si="0"/>
+        <v>0.25876010781671166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A9" s="39">
+        <v>42743</v>
+      </c>
+      <c r="B9" s="40">
+        <v>497</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2942</v>
+      </c>
+      <c r="D9" s="42">
+        <f t="shared" si="0"/>
+        <v>6.4239828693790191E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A10" s="39">
+        <v>42744</v>
+      </c>
+      <c r="B10" s="40">
+        <v>490</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>3432</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" si="0"/>
+        <v>-1.4084507042253502E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A11" s="39">
+        <v>42745</v>
+      </c>
+      <c r="B11" s="40">
+        <v>344</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>3776</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.29795918367346941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A12" s="39">
+        <v>42746</v>
+      </c>
+      <c r="B12" s="40">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>4020</v>
+      </c>
+      <c r="D12" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.29069767441860461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A13" s="39">
+        <v>42747</v>
+      </c>
+      <c r="B13" s="40">
+        <v>219</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>4239</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.10245901639344257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A14" s="39">
+        <v>42748</v>
+      </c>
+      <c r="B14" s="40">
+        <v>234</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>4473</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="0"/>
+        <v>6.8493150684931559E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A15" s="39">
+        <v>42749</v>
+      </c>
+      <c r="B15" s="40">
+        <v>231</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>4704</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" si="0"/>
+        <v>-1.2820512820512775E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A16" s="39">
+        <v>42750</v>
+      </c>
+      <c r="B16" s="40">
+        <v>276</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4980</v>
+      </c>
+      <c r="D16" s="42">
+        <f t="shared" si="0"/>
+        <v>0.19480519480519476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A17" s="39">
+        <v>42751</v>
+      </c>
+      <c r="B17" s="40">
+        <v>304</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5284</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="0"/>
+        <v>0.10144927536231885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A18" s="39">
+        <v>42752</v>
+      </c>
+      <c r="B18" s="40">
+        <v>314</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>5598</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" si="0"/>
+        <v>3.289473684210531E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A19" s="39">
+        <v>42753</v>
+      </c>
+      <c r="B19" s="40">
+        <v>320</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>5918</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="0"/>
+        <v>1.9108280254777066E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A20" s="39">
+        <v>42754</v>
+      </c>
+      <c r="B20" s="40">
+        <v>326</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>6244</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A21" s="39">
+        <v>42755</v>
+      </c>
+      <c r="B21" s="40">
+        <v>375</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>6619</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="0"/>
+        <v>0.15030674846625769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A22" s="39">
+        <v>42756</v>
+      </c>
+      <c r="B22" s="40">
+        <v>310</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>6929</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.17333333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A23" s="39">
+        <v>42757</v>
+      </c>
+      <c r="B23" s="40">
+        <v>322</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>7251</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="0"/>
+        <v>3.8709677419354938E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A24" s="39">
+        <v>42758</v>
+      </c>
+      <c r="B24" s="40">
+        <v>340</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>7591</v>
+      </c>
+      <c r="D24" s="42">
+        <f t="shared" si="0"/>
+        <v>5.5900621118012417E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.45">
+      <c r="A25" s="39">
+        <v>42759</v>
+      </c>
+      <c r="B25" s="40">
+        <v>315</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>7906</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="0"/>
+        <v>-7.3529411764705843E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891AF8F8-FA7A-4EE5-9DEC-C40D920DA679}">
   <dimension ref="A1:A6"/>
   <sheetViews>
